--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H2">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>100.611461065704</v>
+        <v>446.6628757571023</v>
       </c>
       <c r="R2">
-        <v>905.5031495913358</v>
+        <v>4019.96588181392</v>
       </c>
       <c r="S2">
-        <v>0.001960563051098136</v>
+        <v>0.007373959543031411</v>
       </c>
       <c r="T2">
-        <v>0.001960563051098136</v>
+        <v>0.00737395954303141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H3">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>154.569760763584</v>
+        <v>367.8298836660978</v>
       </c>
       <c r="R3">
-        <v>1391.127846872256</v>
+        <v>3310.46895299488</v>
       </c>
       <c r="S3">
-        <v>0.003012020286359417</v>
+        <v>0.006072505301172048</v>
       </c>
       <c r="T3">
-        <v>0.003012020286359417</v>
+        <v>0.006072505301172047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H4">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>77.237428772416</v>
+        <v>212.2127058998223</v>
       </c>
       <c r="R4">
-        <v>695.136858951744</v>
+        <v>1909.9143530984</v>
       </c>
       <c r="S4">
-        <v>0.0015050854784241</v>
+        <v>0.003503420572327764</v>
       </c>
       <c r="T4">
-        <v>0.0015050854784241</v>
+        <v>0.003503420572327764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H5">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>122.9370951694</v>
+        <v>214.4949834400578</v>
       </c>
       <c r="R5">
-        <v>1106.4338565246</v>
+        <v>1930.45485096052</v>
       </c>
       <c r="S5">
-        <v>0.002395611035218537</v>
+        <v>0.00354109870310848</v>
       </c>
       <c r="T5">
-        <v>0.002395611035218537</v>
+        <v>0.003541098703108479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H6">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>61.753974859344</v>
+        <v>161.5643644255511</v>
       </c>
       <c r="R6">
-        <v>555.785773734096</v>
+        <v>1454.07927982996</v>
       </c>
       <c r="S6">
-        <v>0.001203367489998053</v>
+        <v>0.002667266861724748</v>
       </c>
       <c r="T6">
-        <v>0.001203367489998053</v>
+        <v>0.002667266861724748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H7">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>81.06887701208001</v>
+        <v>270.3111357329645</v>
       </c>
       <c r="R7">
-        <v>729.61989310872</v>
+        <v>2432.80022159668</v>
       </c>
       <c r="S7">
-        <v>0.001579746911339528</v>
+        <v>0.004462567827127187</v>
       </c>
       <c r="T7">
-        <v>0.001579746911339528</v>
+        <v>0.004462567827127186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
         <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J8">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>7789.670071122943</v>
+        <v>14532.12050536875</v>
       </c>
       <c r="R8">
-        <v>70107.03064010649</v>
+        <v>130789.0845483187</v>
       </c>
       <c r="S8">
-        <v>0.1517932366742513</v>
+        <v>0.2399108466299315</v>
       </c>
       <c r="T8">
-        <v>0.1517932366742513</v>
+        <v>0.2399108466299315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
         <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J9">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>11967.29901908913</v>
@@ -1013,10 +1013,10 @@
         <v>107705.6911718022</v>
       </c>
       <c r="S9">
-        <v>0.2332005124440734</v>
+        <v>0.197568196498407</v>
       </c>
       <c r="T9">
-        <v>0.2332005124440734</v>
+        <v>0.197568196498407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
         <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J10">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>5979.975649951755</v>
+        <v>6904.313705676396</v>
       </c>
       <c r="R10">
-        <v>53819.7808495658</v>
+        <v>62138.82335108757</v>
       </c>
       <c r="S10">
-        <v>0.1165286656368659</v>
+        <v>0.1139833478476535</v>
       </c>
       <c r="T10">
-        <v>0.1165286656368659</v>
+        <v>0.1139833478476535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
         <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J11">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>9518.194057896493</v>
+        <v>6978.567318505048</v>
       </c>
       <c r="R11">
-        <v>85663.74652106845</v>
+        <v>62807.10586654543</v>
       </c>
       <c r="S11">
-        <v>0.1854760818045091</v>
+        <v>0.1152092010954621</v>
       </c>
       <c r="T11">
-        <v>0.1854760818045091</v>
+        <v>0.1152092010954621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H12">
         <v>246.508934</v>
       </c>
       <c r="I12">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J12">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>4781.19574687984</v>
+        <v>5256.476283652924</v>
       </c>
       <c r="R12">
-        <v>43030.76172191856</v>
+        <v>47308.28655287631</v>
       </c>
       <c r="S12">
-        <v>0.09316866708931516</v>
+        <v>0.08677919199991725</v>
       </c>
       <c r="T12">
-        <v>0.09316866708931516</v>
+        <v>0.08677919199991725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H13">
         <v>246.508934</v>
       </c>
       <c r="I13">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J13">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>6276.618968371282</v>
+        <v>8794.538815781731</v>
       </c>
       <c r="R13">
-        <v>56489.57071534154</v>
+        <v>79150.84934203557</v>
       </c>
       <c r="S13">
-        <v>0.1223091992191052</v>
+        <v>0.1451890831922641</v>
       </c>
       <c r="T13">
-        <v>0.1223091992191052</v>
+        <v>0.1451890831922641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H14">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I14">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J14">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>0.5081904012606666</v>
+        <v>1182.88140591301</v>
       </c>
       <c r="R14">
-        <v>4.573713611345999</v>
+        <v>10645.93265321709</v>
       </c>
       <c r="S14">
-        <v>9.902841217898048E-06</v>
+        <v>0.01952819476349318</v>
       </c>
       <c r="T14">
-        <v>9.902841217898048E-06</v>
+        <v>0.01952819476349318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H15">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I15">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J15">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>0.780734798135111</v>
+        <v>974.1107970754701</v>
       </c>
       <c r="R15">
-        <v>7.026613183215999</v>
+        <v>8766.99717367923</v>
       </c>
       <c r="S15">
-        <v>1.521377168880049E-05</v>
+        <v>0.01608159978795905</v>
       </c>
       <c r="T15">
-        <v>1.521377168880049E-05</v>
+        <v>0.01608159978795905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H16">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I16">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J16">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>0.3901277200871111</v>
+        <v>561.9953605544179</v>
       </c>
       <c r="R16">
-        <v>3.511149480784</v>
+        <v>5057.95824498976</v>
       </c>
       <c r="S16">
-        <v>7.602215345152875E-06</v>
+        <v>0.009277984083802005</v>
       </c>
       <c r="T16">
-        <v>7.602215345152874E-06</v>
+        <v>0.009277984083802005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H17">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I17">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J17">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>0.620957603261111</v>
+        <v>568.0394349828143</v>
       </c>
       <c r="R17">
-        <v>5.588618429349999</v>
+        <v>5112.354914845328</v>
       </c>
       <c r="S17">
-        <v>1.210027685073724E-05</v>
+        <v>0.009377765737324299</v>
       </c>
       <c r="T17">
-        <v>1.210027685073724E-05</v>
+        <v>0.009377765737324299</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H18">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I18">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J18">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>0.3119205002173333</v>
+        <v>427.8651594073049</v>
       </c>
       <c r="R18">
-        <v>2.807284501956</v>
+        <v>3850.786434665744</v>
       </c>
       <c r="S18">
-        <v>6.07823205357079E-06</v>
+        <v>0.007063627954291618</v>
       </c>
       <c r="T18">
-        <v>6.078232053570791E-06</v>
+        <v>0.007063627954291618</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H19">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I19">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J19">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>0.4094804379355556</v>
+        <v>715.8553657000836</v>
       </c>
       <c r="R19">
-        <v>3.68532394142</v>
+        <v>6442.698291300752</v>
       </c>
       <c r="S19">
-        <v>7.979331661227535E-06</v>
+        <v>0.0118180596414844</v>
       </c>
       <c r="T19">
-        <v>7.979331661227537E-06</v>
+        <v>0.0118180596414844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H20">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I20">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J20">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>733.7501515410925</v>
+        <v>9.574699162830223</v>
       </c>
       <c r="R20">
-        <v>6603.751363869833</v>
+        <v>86.172292465472</v>
       </c>
       <c r="S20">
-        <v>0.0142982063933022</v>
+        <v>0.0001580687540770711</v>
       </c>
       <c r="T20">
-        <v>0.0142982063933022</v>
+        <v>0.0001580687540770711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H21">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I21">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J21">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>1127.26307900334</v>
+        <v>7.884829186289777</v>
       </c>
       <c r="R21">
-        <v>10145.36771103006</v>
+        <v>70.963462676608</v>
       </c>
       <c r="S21">
-        <v>0.02196638750845481</v>
+        <v>0.0001301706825866411</v>
       </c>
       <c r="T21">
-        <v>0.02196638750845481</v>
+        <v>0.0001301706825866411</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H22">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I22">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J22">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>563.2854792695484</v>
+        <v>4.549007602382223</v>
       </c>
       <c r="R22">
-        <v>5069.569313425935</v>
+        <v>40.94106842144</v>
       </c>
       <c r="S22">
-        <v>0.01097645025902948</v>
+        <v>7.509958817161769E-05</v>
       </c>
       <c r="T22">
-        <v>0.01097645025902948</v>
+        <v>7.509958817161769E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H23">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I23">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J23">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>896.5689520367944</v>
+        <v>4.597930676225778</v>
       </c>
       <c r="R23">
-        <v>8069.120568331149</v>
+        <v>41.38137608603201</v>
       </c>
       <c r="S23">
-        <v>0.0174709714132588</v>
+        <v>7.590725943068894E-05</v>
       </c>
       <c r="T23">
-        <v>0.0174709714132588</v>
+        <v>7.590725943068894E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H24">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I24">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J24">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>450.3660709361693</v>
+        <v>3.463305926615111</v>
       </c>
       <c r="R24">
-        <v>4053.294638425523</v>
+        <v>31.169753339536</v>
       </c>
       <c r="S24">
-        <v>0.008776048660788993</v>
+        <v>5.71757340359054E-05</v>
       </c>
       <c r="T24">
-        <v>0.008776048660788993</v>
+        <v>5.71757340359054E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H25">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I25">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J25">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>591.2278796352422</v>
+        <v>5.794409935276445</v>
       </c>
       <c r="R25">
-        <v>5321.05091671718</v>
+        <v>52.14968941748801</v>
       </c>
       <c r="S25">
-        <v>0.01152094923693613</v>
+        <v>9.56599412163892E-05</v>
       </c>
       <c r="T25">
-        <v>0.01152094923693613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H26">
-        <v>0.218341</v>
-      </c>
-      <c r="I26">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J26">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N26">
-        <v>284.399553</v>
-      </c>
-      <c r="O26">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P26">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q26">
-        <v>6.899564755730331</v>
-      </c>
-      <c r="R26">
-        <v>62.09608280157299</v>
-      </c>
-      <c r="S26">
-        <v>0.0001344482187760899</v>
-      </c>
-      <c r="T26">
-        <v>0.0001344482187760899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H27">
-        <v>0.218341</v>
-      </c>
-      <c r="I27">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J27">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N27">
-        <v>436.924088</v>
-      </c>
-      <c r="O27">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P27">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q27">
-        <v>10.59982692200089</v>
-      </c>
-      <c r="R27">
-        <v>95.39844229800799</v>
-      </c>
-      <c r="S27">
-        <v>0.0002065532971212777</v>
-      </c>
-      <c r="T27">
-        <v>0.0002065532971212777</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H28">
-        <v>0.218341</v>
-      </c>
-      <c r="I28">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J28">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N28">
-        <v>218.327912</v>
-      </c>
-      <c r="O28">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P28">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q28">
-        <v>5.296659403776888</v>
-      </c>
-      <c r="R28">
-        <v>47.66993463399199</v>
-      </c>
-      <c r="S28">
-        <v>0.0001032132384452197</v>
-      </c>
-      <c r="T28">
-        <v>0.0001032132384452197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H29">
-        <v>0.218341</v>
-      </c>
-      <c r="I29">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J29">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N29">
-        <v>347.507675</v>
-      </c>
-      <c r="O29">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P29">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q29">
-        <v>8.430574807463888</v>
-      </c>
-      <c r="R29">
-        <v>75.875173267175</v>
-      </c>
-      <c r="S29">
-        <v>0.0001642822129005609</v>
-      </c>
-      <c r="T29">
-        <v>0.0001642822129005609</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H30">
-        <v>0.218341</v>
-      </c>
-      <c r="I30">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J30">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N30">
-        <v>174.560658</v>
-      </c>
-      <c r="O30">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P30">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q30">
-        <v>4.234860958708666</v>
-      </c>
-      <c r="R30">
-        <v>38.11374862837799</v>
-      </c>
-      <c r="S30">
-        <v>8.252252610425941E-05</v>
-      </c>
-      <c r="T30">
-        <v>8.252252610425941E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H31">
-        <v>0.218341</v>
-      </c>
-      <c r="I31">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J31">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N31">
-        <v>229.15831</v>
-      </c>
-      <c r="O31">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P31">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q31">
-        <v>5.559406062634443</v>
-      </c>
-      <c r="R31">
-        <v>50.03465456371</v>
-      </c>
-      <c r="S31">
-        <v>0.0001083332455070316</v>
-      </c>
-      <c r="T31">
-        <v>0.0001083332455070316</v>
+        <v>9.56599412163892E-05</v>
       </c>
     </row>
   </sheetData>
